--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="RBDMS list" sheetId="11" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1107">
   <si>
     <t>*</t>
   </si>
@@ -9863,7 +9863,7 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t>MariaDB</t>
+      <t>WebSQL</t>
     </r>
     <r>
       <rPr>
@@ -9872,8 +9872,64 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">( 10.0.19-ADUPS),   </t>
-    </r>
+      <t xml:space="preserve"> - W3 schools</t>
+    </r>
+  </si>
+  <si>
+    <t>Displays all Databases</t>
+  </si>
+  <si>
+    <t>Displays all Tables across Databases</t>
+  </si>
+  <si>
+    <t>Use db_name</t>
+  </si>
+  <si>
+    <t>Select database db_name</t>
+  </si>
+  <si>
+    <t>HELP &lt;item&gt;</t>
+  </si>
+  <si>
+    <t>Ex: HELP date; HELP create trigger</t>
+  </si>
+  <si>
+    <t>Used to check syntax of keywords</t>
+  </si>
+  <si>
+    <t>Create VIEW v AS SELECT col1,col9 from table1;</t>
+  </si>
+  <si>
+    <t>SELECT * from v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE USER </t>
+  </si>
+  <si>
+    <t>CREATE USER username IDENTIFIED BY ;</t>
+  </si>
+  <si>
+    <t>user login without password</t>
+  </si>
+  <si>
+    <t>create user username with password as pword</t>
+  </si>
+  <si>
+    <t>CREATE USER username IDENTIFIED BY 'pword';</t>
+  </si>
+  <si>
+    <t>returns the hash value of the password</t>
+  </si>
+  <si>
+    <t>select password('pword');</t>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/doc/refman/8.0/en/tutorial.html</t>
+  </si>
+  <si>
+    <t>https://www.sqlite.org/docs.html</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -9892,7 +9948,7 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (PHPMYADMIN)</t>
+      <t xml:space="preserve"> 5.7 (PHPMYADMIN)</t>
     </r>
   </si>
   <si>
@@ -9905,7 +9961,7 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t>WebSQL</t>
+      <t>MariaDB</t>
     </r>
     <r>
       <rPr>
@@ -9914,26 +9970,38 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - W3 schools</t>
-    </r>
-  </si>
-  <si>
-    <t>Displays all Databases</t>
-  </si>
-  <si>
-    <t>Displays all Tables across Databases</t>
-  </si>
-  <si>
-    <t>Use db_name</t>
-  </si>
-  <si>
-    <t>Select database db_name</t>
-  </si>
-  <si>
-    <t>SHOW Tables from t_name</t>
-  </si>
-  <si>
-    <t>Displays tables of selected db</t>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.0.19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-ADUPS),   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -11703,7 +11771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -13033,18 +13101,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="112" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" style="112" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" style="114" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.140625" style="112" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="112" customWidth="1"/>
+    <col min="4" max="4" width="43" style="112" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="112"/>
   </cols>
   <sheetData>
@@ -13066,135 +13134,176 @@
       <c r="B2" s="235"/>
       <c r="C2" s="235"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B3" s="114" t="s">
-        <v>1076</v>
+    <row r="3" spans="1:4" s="233" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="233" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B3" s="233" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C3" s="233" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="112" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="112" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>658</v>
+        <v>1096</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D8" s="112" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>1073</v>
+      <c r="A9" s="13"/>
+      <c r="C9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>1081</v>
+      <c r="A10" s="13"/>
+      <c r="C10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B11" s="114" t="s">
-        <v>963</v>
+        <v>658</v>
       </c>
       <c r="C11" s="112" t="s">
-        <v>967</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
+      <c r="C12" s="112" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="235" t="s">
+      <c r="A13" s="13" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>963</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="235" t="s">
         <v>927</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
-        <v>525</v>
-      </c>
-      <c r="B14" s="231" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
-        <v>526</v>
-      </c>
-      <c r="B15" s="231"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="205" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="111"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="111"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="235"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="112" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="231" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="112" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" s="231"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="205" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="111"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="205"/>
+      <c r="C21" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="111"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="112" t="s">
         <v>348</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B22" s="114" t="s">
         <v>527</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C22" s="112" t="s">
         <v>528</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14034,10 +14143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -14070,6 +14179,9 @@
       <c r="B2" s="232" t="s">
         <v>1085</v>
       </c>
+      <c r="C2" s="236" t="s">
+        <v>1104</v>
+      </c>
       <c r="D2" s="172" t="s">
         <v>860</v>
       </c>
@@ -14080,7 +14192,7 @@
     </row>
     <row r="3" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="232" t="s">
-        <v>1086</v>
+        <v>1106</v>
       </c>
       <c r="C3" s="236" t="s">
         <v>1084</v>
@@ -14091,281 +14203,294 @@
     </row>
     <row r="4" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="232" t="s">
-        <v>1087</v>
+        <v>1105</v>
+      </c>
+      <c r="C4" s="236" t="s">
+        <v>1103</v>
       </c>
       <c r="D4" s="175"/>
       <c r="E4" s="173"/>
       <c r="F4" s="171"/>
     </row>
     <row r="5" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="127">
-        <v>2</v>
-      </c>
-      <c r="B5" s="194" t="s">
-        <v>932</v>
-      </c>
-      <c r="D5" s="175" t="s">
-        <v>862</v>
-      </c>
-      <c r="E5" s="173" t="s">
-        <v>863</v>
-      </c>
+      <c r="B5" s="232" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D5" s="175"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="171"/>
     </row>
     <row r="6" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="194" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C6" s="174"/>
+        <v>932</v>
+      </c>
       <c r="D6" s="175" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E6" s="173" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F6" s="171"/>
     </row>
     <row r="7" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="127">
-        <v>4</v>
-      </c>
-      <c r="B7" s="169" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C7" s="174" t="s">
-        <v>961</v>
-      </c>
-      <c r="D7" s="176" t="s">
-        <v>736</v>
-      </c>
-      <c r="E7" s="173"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="194" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C7" s="174"/>
+      <c r="D7" s="175" t="s">
+        <v>864</v>
+      </c>
+      <c r="E7" s="173" t="s">
+        <v>865</v>
+      </c>
       <c r="F7" s="171"/>
     </row>
     <row r="8" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="127">
+        <v>4</v>
+      </c>
+      <c r="B8" s="169" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C8" s="174" t="s">
+        <v>961</v>
+      </c>
+      <c r="D8" s="176" t="s">
+        <v>736</v>
+      </c>
+      <c r="E8" s="173"/>
+      <c r="F8" s="171"/>
+    </row>
+    <row r="9" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="127">
         <v>5</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B9" s="186" t="s">
         <v>960</v>
       </c>
-      <c r="D8" s="175" t="s">
+      <c r="D9" s="175" t="s">
         <v>930</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="E9" s="173" t="s">
         <v>866</v>
       </c>
-      <c r="F8" s="171"/>
-    </row>
-    <row r="9" spans="1:6" s="127" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A9" s="127">
+      <c r="F9" s="171"/>
+    </row>
+    <row r="10" spans="1:6" s="127" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A10" s="127">
         <v>6</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B10" s="169" t="s">
         <v>1021</v>
       </c>
-      <c r="D9" s="175" t="s">
+      <c r="D10" s="175" t="s">
         <v>867</v>
       </c>
-      <c r="E9" s="173" t="s">
+      <c r="E10" s="173" t="s">
         <v>868</v>
       </c>
-      <c r="F9" s="171"/>
-    </row>
-    <row r="10" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127">
+      <c r="F10" s="171"/>
+    </row>
+    <row r="11" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="127">
         <v>7</v>
       </c>
-      <c r="B10" s="187" t="s">
+      <c r="B11" s="187" t="s">
         <v>1022</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D11" s="175" t="s">
         <v>869</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E11" s="173" t="s">
         <v>870</v>
       </c>
-      <c r="F10" s="171"/>
-    </row>
-    <row r="11" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="177" t="s">
+      <c r="F11" s="171"/>
+    </row>
+    <row r="12" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="177" t="s">
         <v>539</v>
       </c>
-      <c r="B11" s="188" t="s">
+      <c r="B12" s="188" t="s">
         <v>541</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D12" s="175" t="s">
         <v>871</v>
       </c>
-      <c r="E11" s="173" t="s">
+      <c r="E12" s="173" t="s">
         <v>872</v>
       </c>
-      <c r="F11" s="171"/>
-    </row>
-    <row r="12" spans="1:6" s="127" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A12" s="177" t="s">
+      <c r="F12" s="171"/>
+    </row>
+    <row r="13" spans="1:6" s="127" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A13" s="177" t="s">
         <v>540</v>
       </c>
-      <c r="B12" s="178" t="s">
+      <c r="B13" s="178" t="s">
         <v>1023</v>
       </c>
-      <c r="D12" s="175" t="s">
+      <c r="D13" s="175" t="s">
         <v>873</v>
       </c>
-      <c r="E12" s="173" t="s">
+      <c r="E13" s="173" t="s">
         <v>874</v>
       </c>
-      <c r="F12" s="171"/>
-    </row>
-    <row r="13" spans="1:6" s="127" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A13" s="143">
+      <c r="F13" s="171"/>
+    </row>
+    <row r="14" spans="1:6" s="127" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A14" s="143">
         <v>8</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B14" s="178" t="s">
         <v>1024</v>
       </c>
-      <c r="D13" s="175" t="s">
+      <c r="D14" s="175" t="s">
         <v>875</v>
       </c>
-      <c r="E13" s="173" t="s">
+      <c r="E14" s="173" t="s">
         <v>876</v>
-      </c>
-      <c r="F13" s="171"/>
-    </row>
-    <row r="14" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="179" t="s">
-        <v>539</v>
-      </c>
-      <c r="B14" s="178" t="s">
-        <v>931</v>
-      </c>
-      <c r="D14" s="175" t="s">
-        <v>877</v>
-      </c>
-      <c r="E14" s="173" t="s">
-        <v>878</v>
       </c>
       <c r="F14" s="171"/>
     </row>
     <row r="15" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="179" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B15" s="178" t="s">
-        <v>640</v>
+        <v>931</v>
       </c>
       <c r="D15" s="175" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E15" s="173" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F15" s="171"/>
     </row>
     <row r="16" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="179" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="178" t="s">
+        <v>640</v>
+      </c>
+      <c r="D16" s="175" t="s">
+        <v>879</v>
+      </c>
+      <c r="E16" s="173" t="s">
+        <v>880</v>
+      </c>
+      <c r="F16" s="171"/>
+    </row>
+    <row r="17" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="179" t="s">
         <v>735</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B17" s="178" t="s">
         <v>638</v>
       </c>
-      <c r="D16" s="180" t="s">
+      <c r="D17" s="180" t="s">
         <v>658</v>
       </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="171"/>
-    </row>
-    <row r="17" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="143">
+      <c r="E17" s="181"/>
+      <c r="F17" s="171"/>
+    </row>
+    <row r="18" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="143">
         <v>9</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B18" s="178" t="s">
         <v>639</v>
       </c>
-      <c r="F17" s="171"/>
-    </row>
-    <row r="18" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="143"/>
-      <c r="B18" s="178" t="s">
+      <c r="F18" s="171"/>
+    </row>
+    <row r="19" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="143"/>
+      <c r="B19" s="178" t="s">
         <v>1025</v>
       </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="171"/>
-    </row>
-    <row r="19" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="143">
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="171"/>
+    </row>
+    <row r="20" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="143">
         <v>10</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B20" s="178" t="s">
         <v>641</v>
       </c>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="171"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="143">
-        <v>11</v>
-      </c>
-      <c r="B20" s="178" t="s">
-        <v>654</v>
-      </c>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="171"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="143">
+        <v>11</v>
+      </c>
+      <c r="B21" s="178" t="s">
+        <v>654</v>
+      </c>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="143">
         <v>12</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B22" s="178" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="143"/>
-      <c r="B22" s="178" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="143"/>
+      <c r="B23" s="178" t="s">
         <v>1026</v>
       </c>
-      <c r="C22" s="169"/>
-    </row>
-    <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="143">
+      <c r="C23" s="169"/>
+    </row>
+    <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="143">
         <v>13</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B24" s="178" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="169" t="s">
+    <row r="25" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="169" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.35">
-      <c r="A25" s="122">
+    <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+      <c r="A26" s="122">
         <v>14</v>
       </c>
-      <c r="B25" s="189" t="s">
+      <c r="B26" s="189" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="189" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="189" t="s">
         <v>1069</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16837,7 +16962,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RBDMS list" sheetId="11" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="1115">
   <si>
     <t>*</t>
   </si>
@@ -9665,19 +9665,7 @@
     <t>TOP, PERCENT-SQL SERVER; ROWNUM-ORACLE SERVER</t>
   </si>
   <si>
-    <t>Create TRIGGER</t>
-  </si>
-  <si>
-    <t>Create trigger triggername AFTER UPDATE ON table          BEGIN -----statements------END</t>
-  </si>
-  <si>
     <t>Create trigger triggername BEFORE INSERT ON table          BEGIN -----statements------END</t>
-  </si>
-  <si>
-    <t>An event that occurs automatically  when anyother event such as INSERT/DELETE/UPDATE is triggered</t>
-  </si>
-  <si>
-    <t>Triggers are used to add restriction/check on an event</t>
   </si>
   <si>
     <t>after view is created, perform any tasks as desired on view</t>
@@ -10002,6 +9990,82 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>An event that occurs automatically  when change in event such as INSERT/DELETE/UPDATE is triggered</t>
+  </si>
+  <si>
+    <t>Triggertime: BEFORE/AFTER</t>
+  </si>
+  <si>
+    <t>Triggerevent: INSERT/DELETE/UPDATE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create trigger </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>triggername</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>triggertime triggerevent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ON table FOR EACH ROW          BEGIN -----triggerbody------END</t>
+    </r>
+  </si>
+  <si>
+    <t>Create trigger insertID BEFORE UPDATE ON customers          FOR EACH ROW BEGIN INSERT INTO customers SET id=old.id+1; END</t>
+  </si>
+  <si>
+    <t>CREATE FUNCTION</t>
+  </si>
+  <si>
+    <t>CREATE TRIGGER</t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE</t>
+  </si>
+  <si>
+    <t>Helps in faster execution, programming</t>
+  </si>
+  <si>
+    <t>Used to create procedure (can return 0/'n' no of values)</t>
+  </si>
+  <si>
+    <t>Helps in defining user functions for flexibility</t>
+  </si>
+  <si>
+    <t>Used to create user defined functions (should return value)</t>
   </si>
 </sst>
 </file>
@@ -11213,6 +11277,12 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11324,15 +11394,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11771,7 +11835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -11786,12 +11850,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="199" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
       <c r="E1" s="137"/>
       <c r="F1" s="140"/>
       <c r="G1" s="140"/>
@@ -11896,7 +11960,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="148" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B8" s="149" t="s">
         <v>929</v>
@@ -11905,7 +11969,7 @@
         <v>928</v>
       </c>
       <c r="D8" s="146" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E8" s="147"/>
     </row>
@@ -11941,12 +12005,12 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="199" t="s">
         <v>720</v>
       </c>
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
     </row>
     <row r="13" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="156" t="s">
@@ -12080,10 +12144,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="234" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="230"/>
+      <c r="B2" s="234"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
@@ -12129,15 +12193,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="233" t="s">
+    <row r="7" spans="1:5" s="197" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="196" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="113" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E7" s="106"/>
     </row>
@@ -12374,10 +12438,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="234" t="s">
         <v>279</v>
       </c>
-      <c r="B38" s="230"/>
+      <c r="B38" s="234"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -12676,10 +12740,10 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="230" t="s">
+      <c r="A77" s="234" t="s">
         <v>350</v>
       </c>
-      <c r="B77" s="230"/>
+      <c r="B77" s="234"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
@@ -13128,82 +13192,82 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="235" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-    </row>
-    <row r="3" spans="1:4" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="233" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B3" s="233" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C3" s="233" t="s">
-        <v>1092</v>
+      <c r="A2" s="236" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+    </row>
+    <row r="3" spans="1:4" s="196" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="196" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B3" s="196" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C3" s="196" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="112" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="112" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C8" t="s">
         <v>1096</v>
       </c>
-      <c r="C8" t="s">
-        <v>1100</v>
-      </c>
       <c r="D8" s="112" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="C9" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D9" s="112" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="C10" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13211,28 +13275,28 @@
         <v>658</v>
       </c>
       <c r="C11" s="112" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="C12" s="112" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B15" s="114" t="s">
         <v>963</v>
@@ -13245,17 +13309,17 @@
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="235" t="s">
+      <c r="A17" s="236" t="s">
         <v>927</v>
       </c>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="236"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="112" t="s">
         <v>525</v>
       </c>
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="235" t="s">
         <v>524</v>
       </c>
     </row>
@@ -13263,13 +13327,13 @@
       <c r="A19" s="112" t="s">
         <v>526</v>
       </c>
-      <c r="B19" s="231"/>
+      <c r="B19" s="235"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="205" t="s">
+      <c r="B20" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="111" t="s">
@@ -13281,7 +13345,7 @@
       <c r="A21" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="205"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="111" t="s">
         <v>130</v>
       </c>
@@ -13467,19 +13531,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.7109375" style="122" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" style="127" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" style="127" customWidth="1"/>
     <col min="3" max="3" width="56.42578125" style="127" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.140625" style="127" customWidth="1"/>
     <col min="5" max="5" width="37.28515625" style="122" bestFit="1" customWidth="1"/>
@@ -13853,10 +13917,10 @@
         <v>1003</v>
       </c>
       <c r="C39" s="127" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D39" s="127" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E39" s="122" t="s">
         <v>1004</v>
@@ -13865,7 +13929,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="121"/>
       <c r="D40" s="127" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -13931,206 +13995,236 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A50" s="122" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B50" s="127" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D50" s="189" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="127" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D51" s="189" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="B52" s="127" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D52" s="189" t="s">
         <v>1060</v>
       </c>
-      <c r="B50" s="127" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="B51" s="127" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D51" s="189" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="D52" s="189" t="s">
-        <v>1062</v>
-      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="122" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B53" s="127" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C53" s="127" t="s">
+        <v>1113</v>
+      </c>
       <c r="D53" s="189"/>
     </row>
-    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A54" s="126" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="122" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B54" s="127" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C54" s="127" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D54" s="189"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D55" s="189"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A56" s="126" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="121" t="s">
-        <v>935</v>
-      </c>
-      <c r="B55" s="127" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A56" s="121" t="s">
-        <v>953</v>
-      </c>
-      <c r="B56" s="127" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D56" s="189" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="121" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B57" s="127" t="s">
-        <v>990</v>
-      </c>
-      <c r="D57" s="127" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A58" s="121" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="B58" s="127" t="s">
-        <v>988</v>
-      </c>
-      <c r="D58" s="127" t="s">
-        <v>976</v>
-      </c>
-      <c r="E58" s="122" t="s">
-        <v>979</v>
+        <v>1066</v>
+      </c>
+      <c r="D58" s="189" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="121" t="s">
+        <v>936</v>
+      </c>
+      <c r="B59" s="127" t="s">
+        <v>990</v>
+      </c>
+      <c r="D59" s="127" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="121" t="s">
+        <v>937</v>
+      </c>
+      <c r="B60" s="127" t="s">
+        <v>988</v>
+      </c>
+      <c r="D60" s="127" t="s">
+        <v>976</v>
+      </c>
+      <c r="E60" s="122" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B61" s="127" t="s">
         <v>989</v>
       </c>
-      <c r="D59" s="127" t="s">
+      <c r="D61" s="127" t="s">
         <v>978</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="122" t="s">
-        <v>955</v>
-      </c>
-      <c r="B60" s="127" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D60" s="127" t="s">
-        <v>986</v>
-      </c>
-      <c r="E60" s="122" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="122" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B61" s="127" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C61" s="127" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="122" t="s">
+        <v>955</v>
+      </c>
+      <c r="B62" s="127" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D62" s="127" t="s">
+        <v>986</v>
+      </c>
+      <c r="E62" s="122" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="122" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B63" s="127" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C63" s="127" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="122" t="s">
         <v>954</v>
       </c>
-      <c r="B62" s="127" t="s">
+      <c r="B64" s="127" t="s">
         <v>982</v>
       </c>
-      <c r="D62" s="127" t="s">
+      <c r="D64" s="127" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D63" s="127" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="127" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D64" s="127" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D66" s="127" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A66" s="128" t="s">
+    <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A68" s="128" t="s">
         <v>968</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="122" t="s">
-        <v>970</v>
-      </c>
-      <c r="B67" s="127" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="122" t="s">
-        <v>971</v>
-      </c>
-      <c r="B68" s="127" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="122" t="s">
+        <v>970</v>
+      </c>
+      <c r="B69" s="127" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="122" t="s">
+        <v>971</v>
+      </c>
+      <c r="B70" s="127" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="122" t="s">
         <v>969</v>
       </c>
-      <c r="B69" s="127" t="s">
+      <c r="B71" s="127" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="190" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="122" t="s">
-        <v>946</v>
-      </c>
-      <c r="B72" s="127" t="s">
-        <v>948</v>
-      </c>
-      <c r="C72" s="127" t="s">
-        <v>950</v>
-      </c>
-      <c r="D72" s="127" t="s">
-        <v>947</v>
-      </c>
-    </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="122" t="s">
-        <v>1039</v>
+      <c r="A73" s="190" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="122" t="s">
-        <v>1038</v>
+        <v>946</v>
+      </c>
+      <c r="B74" s="127" t="s">
+        <v>948</v>
+      </c>
+      <c r="C74" s="127" t="s">
+        <v>950</v>
+      </c>
+      <c r="D74" s="127" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="122" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="122" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="122" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="122" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="122" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -14166,21 +14260,21 @@
       <c r="B1" s="185" t="s">
         <v>653</v>
       </c>
-      <c r="D1" s="196" t="s">
+      <c r="D1" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="197"/>
+      <c r="E1" s="201"/>
       <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="127">
         <v>1</v>
       </c>
-      <c r="B2" s="232" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C2" s="236" t="s">
-        <v>1104</v>
+      <c r="B2" s="195" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C2" s="198" t="s">
+        <v>1100</v>
       </c>
       <c r="D2" s="172" t="s">
         <v>860</v>
@@ -14191,30 +14285,30 @@
       <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C3" s="236" t="s">
-        <v>1084</v>
+      <c r="B3" s="195" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C3" s="198" t="s">
+        <v>1080</v>
       </c>
       <c r="D3" s="175"/>
       <c r="E3" s="173"/>
       <c r="F3" s="171"/>
     </row>
     <row r="4" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="232" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C4" s="236" t="s">
-        <v>1103</v>
+      <c r="B4" s="195" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C4" s="198" t="s">
+        <v>1099</v>
       </c>
       <c r="D4" s="175"/>
       <c r="E4" s="173"/>
       <c r="F4" s="171"/>
     </row>
     <row r="5" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="232" t="s">
-        <v>1086</v>
+      <c r="B5" s="195" t="s">
+        <v>1082</v>
       </c>
       <c r="D5" s="175"/>
       <c r="E5" s="173"/>
@@ -14414,8 +14508,8 @@
       <c r="B19" s="178" t="s">
         <v>1025</v>
       </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
       <c r="F19" s="171"/>
     </row>
     <row r="20" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
@@ -14425,8 +14519,8 @@
       <c r="B20" s="178" t="s">
         <v>641</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
       <c r="F20" s="171"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -14477,7 +14571,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="189" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -14538,7 +14632,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="206" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="58" t="s">
@@ -14552,7 +14646,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="202"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58" t="s">
         <v>442</v>
@@ -14560,7 +14654,7 @@
       <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="58" t="s">
         <v>721</v>
       </c>
@@ -14570,7 +14664,7 @@
       <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="202"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58" t="s">
         <v>818</v>
@@ -14578,7 +14672,7 @@
       <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="58" t="s">
         <v>722</v>
       </c>
@@ -14588,7 +14682,7 @@
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="202"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58" t="s">
         <v>820</v>
@@ -14598,7 +14692,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="202"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58" t="s">
         <v>821</v>
@@ -14664,10 +14758,10 @@
       <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="205" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -14678,8 +14772,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="202"/>
-      <c r="B16" s="201"/>
+      <c r="A16" s="206"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="58" t="s">
         <v>36</v>
       </c>
@@ -14688,8 +14782,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="202"/>
-      <c r="B17" s="201"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="58" t="s">
         <v>37</v>
       </c>
@@ -14698,7 +14792,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="206" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -14712,7 +14806,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="202"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="58"/>
       <c r="C19" s="58" t="s">
         <v>729</v>
@@ -14722,7 +14816,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="202" t="s">
+      <c r="A20" s="206" t="s">
         <v>646</v>
       </c>
       <c r="B20" s="58" t="s">
@@ -14736,7 +14830,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="202"/>
+      <c r="A21" s="206"/>
       <c r="B21" s="91" t="s">
         <v>645</v>
       </c>
@@ -14748,7 +14842,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="202"/>
+      <c r="A22" s="206"/>
       <c r="B22" s="58" t="s">
         <v>648</v>
       </c>
@@ -14760,7 +14854,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="202"/>
+      <c r="A23" s="206"/>
       <c r="B23" s="58" t="s">
         <v>647</v>
       </c>
@@ -14772,7 +14866,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="202"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="58" t="s">
         <v>542</v>
       </c>
@@ -14784,7 +14878,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="202"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58" t="s">
         <v>832</v>
@@ -14804,7 +14898,7 @@
       <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="202" t="s">
+      <c r="A27" s="206" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="58" t="s">
@@ -14818,7 +14912,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="202"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="58" t="s">
         <v>86</v>
       </c>
@@ -14828,7 +14922,7 @@
       <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="202"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="58" t="s">
         <v>728</v>
       </c>
@@ -14874,7 +14968,7 @@
       <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="202" t="s">
+      <c r="A33" s="206" t="s">
         <v>546</v>
       </c>
       <c r="B33" s="58" t="s">
@@ -14888,7 +14982,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="202"/>
+      <c r="A34" s="206"/>
       <c r="B34" s="58"/>
       <c r="C34" s="58" t="s">
         <v>837</v>
@@ -14898,12 +14992,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="202"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="58"/>
-      <c r="C35" s="201" t="s">
+      <c r="C35" s="205" t="s">
         <v>838</v>
       </c>
-      <c r="D35" s="201"/>
+      <c r="D35" s="205"/>
     </row>
     <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
@@ -14934,7 +15028,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="202" t="s">
+      <c r="A38" s="206" t="s">
         <v>91</v>
       </c>
       <c r="B38" s="58" t="s">
@@ -14948,7 +15042,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="202"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="58"/>
       <c r="C39" s="92" t="s">
         <v>547</v>
@@ -14980,7 +15074,7 @@
       <c r="D41" s="58"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="202" t="s">
+      <c r="A42" s="206" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="58" t="s">
@@ -14994,7 +15088,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="202"/>
+      <c r="A43" s="206"/>
       <c r="B43" s="58" t="s">
         <v>183</v>
       </c>
@@ -15006,7 +15100,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="202"/>
+      <c r="A44" s="206"/>
       <c r="B44" s="91" t="s">
         <v>184</v>
       </c>
@@ -15018,7 +15112,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="202"/>
+      <c r="A45" s="206"/>
       <c r="B45" s="58" t="s">
         <v>185</v>
       </c>
@@ -15030,7 +15124,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="202"/>
+      <c r="A46" s="206"/>
       <c r="B46" s="93"/>
       <c r="C46" s="58" t="s">
         <v>850</v>
@@ -15040,10 +15134,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="203" t="s">
+      <c r="A48" s="207" t="s">
         <v>734</v>
       </c>
-      <c r="B48" s="207" t="s">
+      <c r="B48" s="211" t="s">
         <v>573</v>
       </c>
       <c r="C48" s="43" t="s">
@@ -15051,22 +15145,22 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="203"/>
-      <c r="B49" s="207"/>
+      <c r="A49" s="207"/>
+      <c r="B49" s="211"/>
       <c r="C49" s="43" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="203"/>
-      <c r="B50" s="207"/>
+      <c r="A50" s="207"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="43" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="203"/>
-      <c r="B51" s="207"/>
+      <c r="A51" s="207"/>
+      <c r="B51" s="211"/>
       <c r="C51" s="43" t="s">
         <v>574</v>
       </c>
@@ -15075,8 +15169,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="203"/>
-      <c r="B52" s="204" t="s">
+      <c r="A52" s="207"/>
+      <c r="B52" s="208" t="s">
         <v>611</v>
       </c>
       <c r="C52" s="43" t="s">
@@ -15087,8 +15181,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="203"/>
-      <c r="B53" s="204"/>
+      <c r="A53" s="207"/>
+      <c r="B53" s="208"/>
       <c r="C53" s="43" t="s">
         <v>610</v>
       </c>
@@ -15097,8 +15191,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="203"/>
-      <c r="B54" s="207" t="s">
+      <c r="A54" s="207"/>
+      <c r="B54" s="211" t="s">
         <v>575</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -15109,8 +15203,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="203"/>
-      <c r="B55" s="207"/>
+      <c r="A55" s="207"/>
+      <c r="B55" s="211"/>
       <c r="C55" s="43" t="s">
         <v>613</v>
       </c>
@@ -15142,7 +15236,7 @@
       <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="203" t="s">
+      <c r="A59" s="207" t="s">
         <v>733</v>
       </c>
       <c r="B59" s="43" t="s">
@@ -15156,7 +15250,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="203"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="43" t="s">
         <v>643</v>
       </c>
@@ -15198,7 +15292,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="203" t="s">
+      <c r="A64" s="207" t="s">
         <v>565</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -15206,7 +15300,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="203"/>
+      <c r="A65" s="207"/>
       <c r="B65" s="43" t="s">
         <v>585</v>
       </c>
@@ -15215,31 +15309,31 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="203"/>
+      <c r="A66" s="207"/>
       <c r="C66" s="43" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="203"/>
+      <c r="A67" s="207"/>
       <c r="B67" s="43" t="s">
         <v>584</v>
       </c>
       <c r="C67" s="43" t="s">
         <v>571</v>
       </c>
-      <c r="D67" s="206"/>
+      <c r="D67" s="210"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="203"/>
+      <c r="A68" s="207"/>
       <c r="C68" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="D68" s="206"/>
+      <c r="D68" s="210"/>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="203"/>
-      <c r="B69" s="205" t="s">
+      <c r="A69" s="207"/>
+      <c r="B69" s="209" t="s">
         <v>583</v>
       </c>
       <c r="C69" s="43" t="s">
@@ -15250,8 +15344,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="203"/>
-      <c r="B70" s="205"/>
+      <c r="A70" s="207"/>
+      <c r="B70" s="209"/>
       <c r="C70" s="43" t="s">
         <v>561</v>
       </c>
@@ -15260,8 +15354,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="203"/>
-      <c r="B71" s="205"/>
+      <c r="A71" s="207"/>
+      <c r="B71" s="209"/>
       <c r="C71" s="43" t="s">
         <v>567</v>
       </c>
@@ -15270,10 +15364,10 @@
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="200" t="s">
+      <c r="A73" s="204" t="s">
         <v>592</v>
       </c>
-      <c r="B73" s="200"/>
+      <c r="B73" s="204"/>
       <c r="C73" s="48" t="s">
         <v>588</v>
       </c>
@@ -15363,7 +15457,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="206" t="s">
         <v>507</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -15375,7 +15469,7 @@
       <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="58" t="s">
         <v>760</v>
       </c>
@@ -15384,7 +15478,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="202"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="58" t="s">
         <v>508</v>
       </c>
@@ -15400,7 +15494,7 @@
       <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="215" t="s">
         <v>509</v>
       </c>
       <c r="B6" s="73" t="s">
@@ -15414,7 +15508,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="211"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="73" t="s">
         <v>510</v>
       </c>
@@ -15426,7 +15520,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A8" s="211"/>
+      <c r="A8" s="215"/>
       <c r="B8" s="73" t="s">
         <v>766</v>
       </c>
@@ -15438,24 +15532,24 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="211"/>
-      <c r="B9" s="212" t="s">
+      <c r="A9" s="215"/>
+      <c r="B9" s="216" t="s">
         <v>748</v>
       </c>
       <c r="C9" s="74" t="s">
         <v>514</v>
       </c>
-      <c r="D9" s="210" t="s">
+      <c r="D9" s="214" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="212"/>
+      <c r="A10" s="215"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="76" t="s">
         <v>768</v>
       </c>
-      <c r="D10" s="210"/>
+      <c r="D10" s="214"/>
     </row>
     <row r="11" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78"/>
@@ -15464,7 +15558,7 @@
       <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="215" t="s">
         <v>515</v>
       </c>
       <c r="B12" s="80" t="s">
@@ -15478,7 +15572,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="211"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="80" t="s">
         <v>650</v>
       </c>
@@ -15490,8 +15584,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="208" t="s">
+      <c r="A14" s="215"/>
+      <c r="B14" s="212" t="s">
         <v>594</v>
       </c>
       <c r="C14" s="74" t="s">
@@ -15502,8 +15596,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
-      <c r="B15" s="208"/>
+      <c r="A15" s="215"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="74" t="s">
         <v>773</v>
       </c>
@@ -15512,8 +15606,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="208"/>
+      <c r="A16" s="215"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="74" t="s">
         <v>774</v>
       </c>
@@ -15530,7 +15624,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="214" t="s">
         <v>660</v>
       </c>
       <c r="C19" s="74" t="s">
@@ -15541,7 +15635,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="210"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="74" t="s">
         <v>777</v>
       </c>
@@ -15577,7 +15671,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="213" t="s">
         <v>663</v>
       </c>
       <c r="C24" s="74" t="s">
@@ -15588,7 +15682,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="209"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="74" t="s">
         <v>782</v>
       </c>
@@ -15612,7 +15706,7 @@
     </row>
     <row r="28" spans="1:4" s="75" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81"/>
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="214" t="s">
         <v>665</v>
       </c>
       <c r="C28" s="74" t="s">
@@ -15624,7 +15718,7 @@
     </row>
     <row r="29" spans="1:4" s="75" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="81"/>
-      <c r="B29" s="210"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="74" t="s">
         <v>667</v>
       </c>
@@ -15633,7 +15727,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="217" t="s">
         <v>666</v>
       </c>
       <c r="C30" s="74" t="s">
@@ -15644,7 +15738,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="213"/>
+      <c r="B31" s="217"/>
       <c r="C31" s="74" t="s">
         <v>788</v>
       </c>
@@ -15670,7 +15764,7 @@
       <c r="C34" s="74" t="s">
         <v>790</v>
       </c>
-      <c r="D34" s="210" t="s">
+      <c r="D34" s="214" t="s">
         <v>619</v>
       </c>
     </row>
@@ -15681,7 +15775,7 @@
       <c r="C35" s="74" t="s">
         <v>791</v>
       </c>
-      <c r="D35" s="210"/>
+      <c r="D35" s="214"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" s="74" t="s">
@@ -15692,7 +15786,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="210" t="s">
+      <c r="B37" s="214" t="s">
         <v>671</v>
       </c>
       <c r="C37" s="74" t="s">
@@ -15703,7 +15797,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="210"/>
+      <c r="B38" s="214"/>
       <c r="C38" s="74" t="s">
         <v>794</v>
       </c>
@@ -15712,7 +15806,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="213" t="s">
+      <c r="B39" s="217" t="s">
         <v>672</v>
       </c>
       <c r="C39" s="74" t="s">
@@ -15723,7 +15817,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="213"/>
+      <c r="B40" s="217"/>
       <c r="C40" s="74" t="s">
         <v>796</v>
       </c>
@@ -15806,10 +15900,10 @@
       <c r="B51" s="74" t="s">
         <v>805</v>
       </c>
-      <c r="C51" s="210" t="s">
+      <c r="C51" s="214" t="s">
         <v>806</v>
       </c>
-      <c r="D51" s="210"/>
+      <c r="D51" s="214"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="74" t="s">
@@ -15990,11 +16084,11 @@
     </row>
     <row r="8" spans="1:4" s="61" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="219" t="s">
         <v>750</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
@@ -16140,7 +16234,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="218" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="62" t="s">
@@ -16151,7 +16245,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="214"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="62" t="s">
         <v>60</v>
       </c>
@@ -16163,7 +16257,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="214"/>
+      <c r="A23" s="218"/>
       <c r="B23" s="62" t="s">
         <v>61</v>
       </c>
@@ -16312,10 +16406,10 @@
       <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="220" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -16326,8 +16420,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="217"/>
-      <c r="B3" s="216"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="220"/>
       <c r="C3" s="57" t="s">
         <v>122</v>
       </c>
@@ -16348,7 +16442,7 @@
       <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="221" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -16362,7 +16456,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="217"/>
+      <c r="A6" s="221"/>
       <c r="B6" s="57"/>
       <c r="C6" s="57" t="s">
         <v>855</v>
@@ -16372,7 +16466,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217"/>
+      <c r="A7" s="221"/>
       <c r="B7" s="57"/>
       <c r="C7" s="57" t="s">
         <v>174</v>
@@ -16380,7 +16474,7 @@
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="217"/>
+      <c r="A8" s="221"/>
       <c r="B8" s="57"/>
       <c r="C8" s="57" t="s">
         <v>856</v>
@@ -16390,7 +16484,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="217" t="s">
+      <c r="A9" s="221" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="57" t="s">
@@ -16404,7 +16498,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="217"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="99" t="s">
         <v>156</v>
       </c>
@@ -16416,7 +16510,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="217"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="62" t="s">
         <v>537</v>
       </c>
@@ -16428,7 +16522,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="217"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="62" t="s">
         <v>536</v>
       </c>
@@ -16440,7 +16534,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="217"/>
+      <c r="A13" s="221"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62" t="s">
         <v>157</v>
@@ -16450,7 +16544,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="217"/>
+      <c r="A14" s="221"/>
       <c r="B14" s="62"/>
       <c r="C14" s="100" t="s">
         <v>148</v>
@@ -16460,7 +16554,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="217"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="62"/>
       <c r="C15" s="101" t="s">
         <v>152</v>
@@ -16470,7 +16564,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="217"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="62"/>
       <c r="C16" s="57" t="s">
         <v>154</v>
@@ -16480,7 +16574,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="217"/>
+      <c r="A17" s="221"/>
       <c r="B17" s="62"/>
       <c r="C17" s="57" t="s">
         <v>161</v>
@@ -16490,7 +16584,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
+      <c r="A18" s="221"/>
       <c r="B18" s="57"/>
       <c r="C18" s="62" t="s">
         <v>159</v>
@@ -16500,7 +16594,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="217"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="57"/>
       <c r="C19" s="62" t="s">
         <v>163</v>
@@ -16510,7 +16604,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
+      <c r="A20" s="221"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62" t="s">
         <v>165</v>
@@ -16520,7 +16614,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="217"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62" t="s">
         <v>167</v>
@@ -16530,7 +16624,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="217" t="s">
+      <c r="A22" s="221" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -16542,7 +16636,7 @@
       <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="217"/>
+      <c r="A23" s="221"/>
       <c r="B23" s="58"/>
       <c r="C23" s="57" t="s">
         <v>75</v>
@@ -16552,7 +16646,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217"/>
+      <c r="A24" s="221"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57" t="s">
         <v>169</v>
@@ -16562,7 +16656,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="217"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="57"/>
       <c r="C25" s="57" t="s">
         <v>171</v>
@@ -16697,16 +16791,16 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="218" t="s">
+      <c r="B44" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="218"/>
+      <c r="C44" s="222"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45" s="33"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="219" t="s">
+      <c r="A46" s="223" t="s">
         <v>1027</v>
       </c>
       <c r="C46" s="31" t="s">
@@ -16714,13 +16808,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="219"/>
+      <c r="A47" s="223"/>
       <c r="C47" s="6" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="219"/>
+      <c r="A48" s="223"/>
       <c r="B48" s="1" t="s">
         <v>202</v>
       </c>
@@ -16729,7 +16823,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="219"/>
+      <c r="A49" s="223"/>
       <c r="B49" s="31" t="s">
         <v>712</v>
       </c>
@@ -16738,14 +16832,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="219"/>
-      <c r="B50" s="218" t="s">
+      <c r="A50" s="223"/>
+      <c r="B50" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="218"/>
+      <c r="C50" s="222"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="219"/>
+      <c r="A51" s="223"/>
       <c r="B51" s="1" t="s">
         <v>203</v>
       </c>
@@ -16754,7 +16848,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="219"/>
+      <c r="A52" s="223"/>
       <c r="B52" s="31" t="s">
         <v>713</v>
       </c>
@@ -16763,10 +16857,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="220" t="s">
+      <c r="B53" s="224" t="s">
         <v>563</v>
       </c>
-      <c r="C53" s="220"/>
+      <c r="C53" s="224"/>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -16790,7 +16884,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="223" t="s">
         <v>189</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -16801,7 +16895,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="219"/>
+      <c r="A72" s="223"/>
       <c r="B72" s="1" t="s">
         <v>552</v>
       </c>
@@ -16810,13 +16904,13 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="219"/>
+      <c r="A73" s="223"/>
       <c r="B73" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="223" t="s">
         <v>193</v>
       </c>
       <c r="B75" s="31" t="s">
@@ -16827,7 +16921,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="219"/>
+      <c r="A76" s="223"/>
       <c r="B76" s="1" t="s">
         <v>198</v>
       </c>
@@ -16836,13 +16930,13 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="219"/>
+      <c r="A77" s="223"/>
       <c r="B77" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="219" t="s">
+      <c r="A79" s="223" t="s">
         <v>538</v>
       </c>
       <c r="C79" s="31" t="s">
@@ -16850,7 +16944,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="219"/>
+      <c r="A80" s="223"/>
       <c r="B80" s="1" t="s">
         <v>200</v>
       </c>
@@ -16859,7 +16953,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="219"/>
+      <c r="A81" s="223"/>
       <c r="B81" s="1" t="s">
         <v>209</v>
       </c>
@@ -16868,7 +16962,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="219"/>
+      <c r="A82" s="223"/>
       <c r="B82" s="1" t="s">
         <v>201</v>
       </c>
@@ -16877,7 +16971,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="219"/>
+      <c r="A83" s="223"/>
       <c r="B83" s="1" t="s">
         <v>210</v>
       </c>
@@ -16974,19 +17068,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="229" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="225"/>
+      <c r="B1" s="229"/>
       <c r="C1" s="82" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="231" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="227"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="83"/>
     </row>
     <row r="3" spans="1:3" s="22" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17088,7 +17182,7 @@
       <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="226" t="s">
         <v>462</v>
       </c>
       <c r="B13" s="69" t="s">
@@ -17097,14 +17191,14 @@
       <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="86" t="s">
         <v>815</v>
       </c>
       <c r="C14" s="74"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="222"/>
+      <c r="A15" s="226"/>
       <c r="B15" s="69" t="s">
         <v>464</v>
       </c>
@@ -17120,10 +17214,10 @@
       <c r="C16" s="74"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="230" t="s">
         <v>468</v>
       </c>
-      <c r="B18" s="226"/>
+      <c r="B18" s="230"/>
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -17200,16 +17294,16 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="228" t="s">
+      <c r="A28" s="232" t="s">
         <v>485</v>
       </c>
-      <c r="B28" s="228"/>
+      <c r="B28" s="232"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="229" t="s">
+      <c r="A30" s="233" t="s">
         <v>502</v>
       </c>
-      <c r="B30" s="229"/>
+      <c r="B30" s="233"/>
       <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17224,7 +17318,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="223" t="s">
+      <c r="A32" s="227" t="s">
         <v>486</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -17232,16 +17326,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="223"/>
+      <c r="A33" s="227"/>
       <c r="B33" s="21" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="223"/>
+      <c r="A34" s="227"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="223" t="s">
+      <c r="A35" s="227" t="s">
         <v>488</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -17249,16 +17343,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="223"/>
+      <c r="A36" s="227"/>
       <c r="B36" s="21" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="223"/>
+      <c r="A37" s="227"/>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="224" t="s">
+      <c r="A38" s="228" t="s">
         <v>490</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -17266,16 +17360,16 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="224"/>
+      <c r="A39" s="228"/>
       <c r="B39" s="21" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="224"/>
+      <c r="A40" s="228"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="224" t="s">
+      <c r="A41" s="228" t="s">
         <v>492</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -17283,16 +17377,16 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="224"/>
+      <c r="A42" s="228"/>
       <c r="B42" s="21" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="224"/>
+      <c r="A43" s="228"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="224" t="s">
+      <c r="A44" s="228" t="s">
         <v>494</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -17300,19 +17394,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="224"/>
+      <c r="A45" s="228"/>
       <c r="B45" s="21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="224"/>
+      <c r="A46" s="228"/>
     </row>
     <row r="47" spans="1:3" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="221" t="s">
+      <c r="A47" s="225" t="s">
         <v>496</v>
       </c>
-      <c r="B47" s="221"/>
+      <c r="B47" s="225"/>
       <c r="C47" s="25"/>
     </row>
   </sheetData>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RBDMS list" sheetId="11" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1116">
   <si>
     <t>*</t>
   </si>
@@ -9626,108 +9626,102 @@
     <t>Example: Sending all insert commands of 10 items at a time, thus reducing feedback response from server for each insert request i.e instead of 10 responses only 1 response for all the 10 items is received once, also the port opening/closing to share data is reduced.</t>
   </si>
   <si>
-    <t>Begin, End Transaction</t>
-  </si>
-  <si>
     <t>insert into customers value(10, "text");</t>
   </si>
   <si>
     <t>Begin Transaction; select * from customers;</t>
   </si>
   <si>
-    <t>Rollback</t>
-  </si>
-  <si>
     <t>To redo/undo a transaction</t>
   </si>
   <si>
     <t>End Transaction; / Rollback ;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To enter group of queries as one, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+    <t>Always read the SQL server documentation for all the keywords used in that SQL</t>
+  </si>
+  <si>
+    <t>TOP, PERCENT-SQL SERVER; ROWNUM-ORACLE SERVER</t>
+  </si>
+  <si>
+    <t>Create trigger triggername BEFORE INSERT ON table          BEGIN -----statements------END</t>
+  </si>
+  <si>
+    <t>after view is created, perform any tasks as desired on view</t>
+  </si>
+  <si>
+    <t>Select city from viewname;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> viewname </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> select city,ID from Customers;</t>
+    </r>
+  </si>
+  <si>
+    <t>Create your own User defined Functions if SQL doesn't support what you need.</t>
+  </si>
+  <si>
+    <t>field in a table refering to primary key in other table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create table newt(ID int, City text unique, Primary key(ID), </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t>increases performance</t>
-    </r>
-  </si>
-  <si>
-    <t>Always read the SQL server documentation for all the keywords used in that SQL</t>
-  </si>
-  <si>
-    <t>TOP, PERCENT-SQL SERVER; ROWNUM-ORACLE SERVER</t>
-  </si>
-  <si>
-    <t>Create trigger triggername BEFORE INSERT ON table          BEGIN -----statements------END</t>
-  </si>
-  <si>
-    <t>after view is created, perform any tasks as desired on view</t>
-  </si>
-  <si>
-    <t>Select city from viewname;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>foreign key</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t>VIEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> viewname </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t>AS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> select city,ID from Customers;</t>
-    </r>
-  </si>
-  <si>
-    <t>Some Funcn's (String/Numeric/Date Time)</t>
-  </si>
-  <si>
-    <t>Create your own User defined Functions if SQL doesn't support what you need.</t>
-  </si>
-  <si>
-    <t>field in a table refering to primary key in other table</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create table newt(ID int, City text unique, Primary key(ID), </t>
+      <t xml:space="preserve">(City) </t>
     </r>
     <r>
       <rPr>
@@ -9736,7 +9730,7 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t>foreign key</t>
+      <t>References</t>
     </r>
     <r>
       <rPr>
@@ -9745,7 +9739,12 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(City) </t>
+      <t xml:space="preserve"> othertable(customer city)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">view to access frequently needed columns like </t>
     </r>
     <r>
       <rPr>
@@ -9754,21 +9753,290 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t>References</t>
-    </r>
-    <r>
-      <rPr>
+      <t>PROCEDURES</t>
+    </r>
+  </si>
+  <si>
+    <t>TRIGGER</t>
+  </si>
+  <si>
+    <t>MARIADB (10.4)</t>
+  </si>
+  <si>
+    <t>SELECT VERSION()</t>
+  </si>
+  <si>
+    <t>Display RDBMS version</t>
+  </si>
+  <si>
+    <t>SHOW Databases/Schemas</t>
+  </si>
+  <si>
+    <t>SHOW Tables</t>
+  </si>
+  <si>
+    <t>fork of MySQL, Opensource</t>
+  </si>
+  <si>
+    <t>Maria DB</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>SELECT CONCAT (FirstName, ', ' , City) FROM table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mariadb.com/kb/en/library/sql-statements/ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Worked on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> othertable(customer city)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">view to access frequently needed columns like </t>
+      <t>SQLite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(DB browser SQL Lite)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>WebSQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - W3 schools</t>
+    </r>
+  </si>
+  <si>
+    <t>Displays all Databases</t>
+  </si>
+  <si>
+    <t>Displays all Tables across Databases</t>
+  </si>
+  <si>
+    <t>Use db_name</t>
+  </si>
+  <si>
+    <t>Select database db_name</t>
+  </si>
+  <si>
+    <t>HELP &lt;item&gt;</t>
+  </si>
+  <si>
+    <t>Ex: HELP date; HELP create trigger</t>
+  </si>
+  <si>
+    <t>Used to check syntax of keywords</t>
+  </si>
+  <si>
+    <t>Create VIEW v AS SELECT col1,col9 from table1;</t>
+  </si>
+  <si>
+    <t>SELECT * from v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE USER </t>
+  </si>
+  <si>
+    <t>CREATE USER username IDENTIFIED BY ;</t>
+  </si>
+  <si>
+    <t>user login without password</t>
+  </si>
+  <si>
+    <t>create user username with password as pword</t>
+  </si>
+  <si>
+    <t>CREATE USER username IDENTIFIED BY 'pword';</t>
+  </si>
+  <si>
+    <t>returns the hash value of the password</t>
+  </si>
+  <si>
+    <t>select password('pword');</t>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/doc/refman/8.0/en/tutorial.html</t>
+  </si>
+  <si>
+    <t>https://www.sqlite.org/docs.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maria/MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5.7 (PHPMYADMIN)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>MariaDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.0.19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-ADUPS),   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>An event that occurs automatically  when change in event such as INSERT/DELETE/UPDATE is triggered</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create trigger </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>triggername</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t>triggertime triggerevent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ON table FOR EACH ROW          BEGIN -----triggerbody------END</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE FUNCTION</t>
+  </si>
+  <si>
+    <t>CREATE TRIGGER</t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE</t>
+  </si>
+  <si>
+    <t>Helps in faster execution, programming</t>
+  </si>
+  <si>
+    <t>Used to create procedure (can return 0/'n' no of values)</t>
+  </si>
+  <si>
+    <t>Helps in defining user functions for flexibility</t>
+  </si>
+  <si>
+    <t>Used to create user defined functions (should return value)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To enter group of queries as one, </t>
     </r>
     <r>
       <rPr>
@@ -9777,302 +10045,56 @@
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t>PROCEDURES</t>
-    </r>
-  </si>
-  <si>
-    <t>TRIGGER</t>
-  </si>
-  <si>
-    <t>MARIADB (10.4)</t>
-  </si>
-  <si>
-    <t>SELECT VERSION()</t>
-  </si>
-  <si>
-    <t>Display RDBMS version</t>
-  </si>
-  <si>
-    <t>SHOW Databases/Schemas</t>
-  </si>
-  <si>
-    <t>SHOW Tables</t>
-  </si>
-  <si>
-    <t>fork of MySQL, Opensource</t>
-  </si>
-  <si>
-    <t>Maria DB</t>
-  </si>
-  <si>
-    <t>EVENT</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>SELECT CONCAT (FirstName, ', ' , City) FROM table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mariadb.com/kb/en/library/sql-statements/ </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Worked on </t>
+      <t>increases performance</t>
+    </r>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>Rollback / End Transaction</t>
+  </si>
+  <si>
+    <t>Triggertime:_BEFORE/AFTER ;  Triggerevent:_INSERT/DELETE/UPDATE</t>
+  </si>
+  <si>
+    <t>BUT, TRIGGERS cannot be used to SELECT, ALTER, CREATE, DROP table etc, only with INSERT/DELETE/UPDATE of the table.</t>
+  </si>
+  <si>
+    <t>Some Functions (String/Numeric/Date Time)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft New Tai Lue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">using </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft New Tai Lue"/>
         <family val="2"/>
       </rPr>
-      <t>SQLite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t>(DB browser SQL Lite)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t>WebSQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - W3 schools</t>
-    </r>
-  </si>
-  <si>
-    <t>Displays all Databases</t>
-  </si>
-  <si>
-    <t>Displays all Tables across Databases</t>
-  </si>
-  <si>
-    <t>Use db_name</t>
-  </si>
-  <si>
-    <t>Select database db_name</t>
-  </si>
-  <si>
-    <t>HELP &lt;item&gt;</t>
-  </si>
-  <si>
-    <t>Ex: HELP date; HELP create trigger</t>
-  </si>
-  <si>
-    <t>Used to check syntax of keywords</t>
-  </si>
-  <si>
-    <t>Create VIEW v AS SELECT col1,col9 from table1;</t>
-  </si>
-  <si>
-    <t>SELECT * from v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE USER </t>
-  </si>
-  <si>
-    <t>CREATE USER username IDENTIFIED BY ;</t>
-  </si>
-  <si>
-    <t>user login without password</t>
-  </si>
-  <si>
-    <t>create user username with password as pword</t>
-  </si>
-  <si>
-    <t>CREATE USER username IDENTIFIED BY 'pword';</t>
-  </si>
-  <si>
-    <t>returns the hash value of the password</t>
-  </si>
-  <si>
-    <t>select password('pword');</t>
-  </si>
-  <si>
-    <t>https://dev.mysql.com/doc/refman/8.0/en/tutorial.html</t>
-  </si>
-  <si>
-    <t>https://www.sqlite.org/docs.html</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t>Maria/MySQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 5.7 (PHPMYADMIN)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t>MariaDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t>10.0.19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-ADUPS),   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>An event that occurs automatically  when change in event such as INSERT/DELETE/UPDATE is triggered</t>
-  </si>
-  <si>
-    <t>Triggertime: BEFORE/AFTER</t>
-  </si>
-  <si>
-    <t>Triggerevent: INSERT/DELETE/UPDATE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create trigger </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t>triggername</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t>triggertime triggerevent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft New Tai Lue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ON table FOR EACH ROW          BEGIN -----triggerbody------END</t>
-    </r>
-  </si>
-  <si>
-    <t>Create trigger insertID BEFORE UPDATE ON customers          FOR EACH ROW BEGIN INSERT INTO customers SET id=old.id+1; END</t>
-  </si>
-  <si>
-    <t>CREATE FUNCTION</t>
-  </si>
-  <si>
-    <t>CREATE TRIGGER</t>
-  </si>
-  <si>
-    <t>CREATE PROCEDURE</t>
-  </si>
-  <si>
-    <t>Helps in faster execution, programming</t>
-  </si>
-  <si>
-    <t>Used to create procedure (can return 0/'n' no of values)</t>
-  </si>
-  <si>
-    <t>Helps in defining user functions for flexibility</t>
-  </si>
-  <si>
-    <t>Used to create user defined functions (should return value)</t>
+      <t>JOIN</t>
+    </r>
+  </si>
+  <si>
+    <t>Used in PL powered by SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10502,9 +10524,17 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Microsoft New Tai Lue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color theme="1"/>
       <name val="Microsoft New Tai Lue"/>
       <family val="2"/>
     </font>
@@ -10721,7 +10751,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -11266,9 +11296,6 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -11283,6 +11310,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11396,6 +11429,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11483,6 +11523,86 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3862111</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>202263</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10715624" y="11370468"/>
+          <a:ext cx="3826393" cy="1142858"/>
+          <a:chOff x="10715624" y="11156156"/>
+          <a:chExt cx="3826393" cy="1142857"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10715624" y="11168062"/>
+            <a:ext cx="1514286" cy="866667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12322969" y="11156156"/>
+            <a:ext cx="2219048" cy="1142857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -11523,7 +11643,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11850,12 +11970,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="200" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
       <c r="E1" s="137"/>
       <c r="F1" s="140"/>
       <c r="G1" s="140"/>
@@ -11960,7 +12080,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="148" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B8" s="149" t="s">
         <v>929</v>
@@ -11969,7 +12089,7 @@
         <v>928</v>
       </c>
       <c r="D8" s="146" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E8" s="147"/>
     </row>
@@ -12005,12 +12125,12 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="200" t="s">
         <v>720</v>
       </c>
-      <c r="B12" s="199"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
     </row>
     <row r="13" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="156" t="s">
@@ -12144,10 +12264,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="235" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="234"/>
+      <c r="B2" s="235"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
@@ -12193,15 +12313,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="197" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+    <row r="7" spans="1:5" s="196" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="195" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="113" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E7" s="106"/>
     </row>
@@ -12438,10 +12558,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="234" t="s">
+      <c r="A38" s="235" t="s">
         <v>279</v>
       </c>
-      <c r="B38" s="234"/>
+      <c r="B38" s="235"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -12740,10 +12860,10 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="234" t="s">
+      <c r="A77" s="235" t="s">
         <v>350</v>
       </c>
-      <c r="B77" s="234"/>
+      <c r="B77" s="235"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
@@ -13192,82 +13312,82 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="236" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-    </row>
-    <row r="3" spans="1:4" s="196" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="196" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B3" s="196" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C3" s="196" t="s">
-        <v>1088</v>
+      <c r="A2" s="237" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+    </row>
+    <row r="3" spans="1:4" s="195" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="195" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B3" s="195" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C3" s="195" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="112" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="112" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C8" t="s">
         <v>1092</v>
       </c>
-      <c r="C8" t="s">
-        <v>1096</v>
-      </c>
       <c r="D8" s="112" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="C9" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D9" s="112" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="C10" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13275,28 +13395,28 @@
         <v>658</v>
       </c>
       <c r="C11" s="112" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="C12" s="112" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B15" s="114" t="s">
         <v>963</v>
@@ -13309,17 +13429,17 @@
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="236" t="s">
+      <c r="A17" s="237" t="s">
         <v>927</v>
       </c>
-      <c r="B17" s="236"/>
-      <c r="C17" s="236"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="237"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="112" t="s">
         <v>525</v>
       </c>
-      <c r="B18" s="235" t="s">
+      <c r="B18" s="236" t="s">
         <v>524</v>
       </c>
     </row>
@@ -13327,13 +13447,13 @@
       <c r="A19" s="112" t="s">
         <v>526</v>
       </c>
-      <c r="B19" s="235"/>
+      <c r="B19" s="236"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="210" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="111" t="s">
@@ -13345,7 +13465,7 @@
       <c r="A21" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="209"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="111" t="s">
         <v>130</v>
       </c>
@@ -13534,10 +13654,10 @@
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -13640,7 +13760,7 @@
       </c>
       <c r="B10" s="121"/>
       <c r="C10" s="121" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D10" s="121" t="s">
         <v>991</v>
@@ -13769,7 +13889,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="121"/>
       <c r="B23" s="121"/>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="198" t="s">
         <v>1047</v>
       </c>
       <c r="D23" s="121" t="s">
@@ -13806,432 +13926,440 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="122" t="s">
-        <v>908</v>
-      </c>
-      <c r="B27" s="127" t="s">
-        <v>901</v>
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="126" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="122" t="s">
-        <v>909</v>
-      </c>
-      <c r="B28" s="127" t="s">
-        <v>902</v>
+        <v>939</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="125" t="s">
-        <v>903</v>
-      </c>
-      <c r="B29" s="191" t="s">
-        <v>904</v>
-      </c>
-      <c r="C29" s="127" t="s">
-        <v>906</v>
+      <c r="A29" s="122" t="s">
+        <v>924</v>
+      </c>
+      <c r="D29" s="127" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="125" t="s">
-        <v>911</v>
-      </c>
-      <c r="B30" s="191" t="s">
-        <v>905</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>906</v>
+      <c r="A30" s="122" t="s">
+        <v>942</v>
+      </c>
+      <c r="B30" s="127" t="s">
+        <v>944</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="122" t="s">
-        <v>94</v>
+        <v>943</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>905</v>
-      </c>
-      <c r="D31" s="192" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="126" t="s">
-        <v>938</v>
+        <v>944</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="121" t="s">
+        <v>959</v>
+      </c>
+      <c r="B32" s="121" t="s">
+        <v>956</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>958</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="121" t="s">
+        <v>658</v>
+      </c>
+      <c r="B33" s="127" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C33" s="127" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D33" s="127" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E33" s="122" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="122" t="s">
-        <v>939</v>
+      <c r="A34" s="121"/>
+      <c r="D34" s="127" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="122" t="s">
-        <v>924</v>
-      </c>
-      <c r="D35" s="127" t="s">
-        <v>925</v>
+        <v>913</v>
+      </c>
+      <c r="B35" s="127" t="s">
+        <v>945</v>
+      </c>
+      <c r="D35" s="192" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="122" t="s">
-        <v>942</v>
-      </c>
-      <c r="B36" s="127" t="s">
-        <v>944</v>
-      </c>
-      <c r="D36" s="127" t="s">
-        <v>993</v>
+      <c r="D36" s="192" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="122" t="s">
-        <v>943</v>
-      </c>
-      <c r="B37" s="127" t="s">
-        <v>944</v>
-      </c>
-      <c r="D37" s="127" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121" t="s">
-        <v>959</v>
-      </c>
-      <c r="B38" s="121" t="s">
-        <v>956</v>
-      </c>
-      <c r="C38" s="121" t="s">
-        <v>958</v>
-      </c>
-      <c r="D38" s="121" t="s">
-        <v>957</v>
+      <c r="D37" s="192" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="192" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="121" t="s">
-        <v>658</v>
-      </c>
-      <c r="B39" s="127" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C39" s="127" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D39" s="127" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E39" s="122" t="s">
-        <v>1004</v>
+      <c r="D39" s="192" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="121"/>
-      <c r="D40" s="127" t="s">
-        <v>1062</v>
+      <c r="D40" s="192" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="122" t="s">
-        <v>913</v>
+        <v>1109</v>
       </c>
       <c r="B41" s="127" t="s">
-        <v>945</v>
-      </c>
-      <c r="D41" s="193" t="s">
-        <v>994</v>
+        <v>1108</v>
+      </c>
+      <c r="D41" s="127" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D42" s="193" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D43" s="193" t="s">
-        <v>996</v>
+      <c r="A42" s="122" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B42" s="127" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D42" s="127" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D44" s="193" t="s">
-        <v>997</v>
+      <c r="A44" s="240" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D44" s="127" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D45" s="193" t="s">
-        <v>998</v>
+      <c r="A45" s="122" t="s">
+        <v>908</v>
+      </c>
+      <c r="B45" s="127" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D46" s="193" t="s">
-        <v>999</v>
+      <c r="A46" s="122" t="s">
+        <v>909</v>
+      </c>
+      <c r="B46" s="127" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="122" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B47" s="127" t="s">
+      <c r="A47" s="125" t="s">
+        <v>903</v>
+      </c>
+      <c r="B47" s="190" t="s">
+        <v>904</v>
+      </c>
+      <c r="C47" s="127" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="125" t="s">
+        <v>911</v>
+      </c>
+      <c r="B48" s="190" t="s">
+        <v>905</v>
+      </c>
+      <c r="C48" s="127" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="238" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="127" t="s">
+        <v>905</v>
+      </c>
+      <c r="D49" s="191" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="189" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="240" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B51" s="189" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C51" s="123" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D51" s="189" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="121" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="199" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C52" s="123" t="s">
         <v>1057</v>
       </c>
-      <c r="D47" s="127" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="122" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B48" s="127" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D48" s="127" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D49" s="127" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="122" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B50" s="127" t="s">
+      <c r="D52" s="123"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="238" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B53" s="127" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C53" s="127" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D53" s="189"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="239" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B54" s="239"/>
+      <c r="C54" s="239"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="122" t="s">
+        <v>946</v>
+      </c>
+      <c r="B55" s="127" t="s">
+        <v>948</v>
+      </c>
+      <c r="C55" s="127" t="s">
+        <v>950</v>
+      </c>
+      <c r="D55" s="127" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="122" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="122" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="122" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="122" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="122" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="238" t="s">
         <v>1103</v>
       </c>
-      <c r="D50" s="189" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="127" t="s">
+      <c r="B62" s="127" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C62" s="127" t="s">
         <v>1104</v>
       </c>
-      <c r="D51" s="189" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="B52" s="127" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D52" s="189" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="122" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B53" s="127" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C53" s="127" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D53" s="189"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="122" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B54" s="127" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C54" s="127" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D54" s="189"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D55" s="189"/>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A56" s="126" t="s">
+      <c r="D62" s="189"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="127" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D63" s="189"/>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A64" s="126" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="121" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="121" t="s">
         <v>935</v>
       </c>
-      <c r="B57" s="127" t="s">
+      <c r="B65" s="127" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A58" s="121" t="s">
+    <row r="66" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A66" s="121" t="s">
         <v>953</v>
       </c>
-      <c r="B58" s="127" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D58" s="189" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="121" t="s">
+      <c r="B66" s="127" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D66" s="189" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="121" t="s">
         <v>936</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B67" s="127" t="s">
         <v>990</v>
       </c>
-      <c r="D59" s="127" t="s">
+      <c r="D67" s="127" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="121" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="121" t="s">
         <v>937</v>
       </c>
-      <c r="B60" s="127" t="s">
+      <c r="B68" s="127" t="s">
         <v>988</v>
       </c>
-      <c r="D60" s="127" t="s">
+      <c r="D68" s="127" t="s">
         <v>976</v>
       </c>
-      <c r="E60" s="122" t="s">
+      <c r="E68" s="122" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="121" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="B61" s="127" t="s">
+      <c r="B69" s="127" t="s">
         <v>989</v>
       </c>
-      <c r="D61" s="127" t="s">
+      <c r="D69" s="127" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="122" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="122" t="s">
         <v>955</v>
       </c>
-      <c r="B62" s="127" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D62" s="127" t="s">
+      <c r="B70" s="127" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D70" s="127" t="s">
         <v>986</v>
       </c>
-      <c r="E62" s="122" t="s">
+      <c r="E70" s="122" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="122" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="122" t="s">
         <v>1000</v>
       </c>
-      <c r="B63" s="127" t="s">
+      <c r="B71" s="127" t="s">
         <v>1001</v>
       </c>
-      <c r="C63" s="127" t="s">
+      <c r="C71" s="127" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="122" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="122" t="s">
         <v>954</v>
       </c>
-      <c r="B64" s="127" t="s">
+      <c r="B72" s="127" t="s">
         <v>982</v>
       </c>
-      <c r="D64" s="127" t="s">
+      <c r="D72" s="127" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D65" s="127" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D73" s="127" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D66" s="127" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D74" s="127" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A68" s="128" t="s">
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A76" s="128" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="122" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="122" t="s">
         <v>970</v>
       </c>
-      <c r="B69" s="127" t="s">
+      <c r="B77" s="127" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="122" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="122" t="s">
         <v>971</v>
       </c>
-      <c r="B70" s="127" t="s">
+      <c r="B78" s="127" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="122" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="122" t="s">
         <v>969</v>
       </c>
-      <c r="B71" s="127" t="s">
+      <c r="B79" s="127" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="190" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="122" t="s">
-        <v>946</v>
-      </c>
-      <c r="B74" s="127" t="s">
-        <v>948</v>
-      </c>
-      <c r="C74" s="127" t="s">
-        <v>950</v>
-      </c>
-      <c r="D74" s="127" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="122" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="122" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="122" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="122" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="122" t="s">
-        <v>1040</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A54:C54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14260,21 +14388,21 @@
       <c r="B1" s="185" t="s">
         <v>653</v>
       </c>
-      <c r="D1" s="200" t="s">
+      <c r="D1" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="201"/>
+      <c r="E1" s="202"/>
       <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="127">
         <v>1</v>
       </c>
-      <c r="B2" s="195" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C2" s="198" t="s">
-        <v>1100</v>
+      <c r="B2" s="194" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>1096</v>
       </c>
       <c r="D2" s="172" t="s">
         <v>860</v>
@@ -14285,30 +14413,30 @@
       <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="195" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C3" s="198" t="s">
-        <v>1080</v>
+      <c r="B3" s="194" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C3" s="197" t="s">
+        <v>1076</v>
       </c>
       <c r="D3" s="175"/>
       <c r="E3" s="173"/>
       <c r="F3" s="171"/>
     </row>
     <row r="4" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="195" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C4" s="198" t="s">
-        <v>1099</v>
+      <c r="B4" s="194" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C4" s="197" t="s">
+        <v>1095</v>
       </c>
       <c r="D4" s="175"/>
       <c r="E4" s="173"/>
       <c r="F4" s="171"/>
     </row>
     <row r="5" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="195" t="s">
-        <v>1082</v>
+      <c r="B5" s="194" t="s">
+        <v>1078</v>
       </c>
       <c r="D5" s="175"/>
       <c r="E5" s="173"/>
@@ -14318,7 +14446,7 @@
       <c r="A6" s="127">
         <v>2</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="193" t="s">
         <v>932</v>
       </c>
       <c r="D6" s="175" t="s">
@@ -14333,8 +14461,8 @@
       <c r="A7" s="127">
         <v>3</v>
       </c>
-      <c r="B7" s="194" t="s">
-        <v>1058</v>
+      <c r="B7" s="193" t="s">
+        <v>1055</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="175" t="s">
@@ -14508,8 +14636,8 @@
       <c r="B19" s="178" t="s">
         <v>1025</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
       <c r="F19" s="171"/>
     </row>
     <row r="20" spans="1:6" s="127" customFormat="1" x14ac:dyDescent="0.35">
@@ -14519,8 +14647,8 @@
       <c r="B20" s="178" t="s">
         <v>641</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
       <c r="F20" s="171"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -14571,7 +14699,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="189" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -14597,7 +14725,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A35" activeCellId="1" sqref="A32:A34 A35:A37"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A9"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14632,7 +14760,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="207" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="58" t="s">
@@ -14646,7 +14774,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="206"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58" t="s">
         <v>442</v>
@@ -14654,7 +14782,7 @@
       <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="206"/>
+      <c r="A5" s="207"/>
       <c r="B5" s="58" t="s">
         <v>721</v>
       </c>
@@ -14664,7 +14792,7 @@
       <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58" t="s">
         <v>818</v>
@@ -14672,7 +14800,7 @@
       <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
+      <c r="A7" s="207"/>
       <c r="B7" s="58" t="s">
         <v>722</v>
       </c>
@@ -14682,7 +14810,7 @@
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58" t="s">
         <v>820</v>
@@ -14692,7 +14820,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="206"/>
+      <c r="A9" s="207"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58" t="s">
         <v>821</v>
@@ -14758,10 +14886,10 @@
       <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="205" t="s">
+      <c r="B15" s="206" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -14772,8 +14900,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="206"/>
-      <c r="B16" s="205"/>
+      <c r="A16" s="207"/>
+      <c r="B16" s="206"/>
       <c r="C16" s="58" t="s">
         <v>36</v>
       </c>
@@ -14782,8 +14910,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="206"/>
-      <c r="B17" s="205"/>
+      <c r="A17" s="207"/>
+      <c r="B17" s="206"/>
       <c r="C17" s="58" t="s">
         <v>37</v>
       </c>
@@ -14792,7 +14920,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="207" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -14806,7 +14934,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="206"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="58"/>
       <c r="C19" s="58" t="s">
         <v>729</v>
@@ -14816,7 +14944,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="206" t="s">
+      <c r="A20" s="207" t="s">
         <v>646</v>
       </c>
       <c r="B20" s="58" t="s">
@@ -14830,7 +14958,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="206"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="91" t="s">
         <v>645</v>
       </c>
@@ -14842,7 +14970,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="206"/>
+      <c r="A22" s="207"/>
       <c r="B22" s="58" t="s">
         <v>648</v>
       </c>
@@ -14854,7 +14982,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="206"/>
+      <c r="A23" s="207"/>
       <c r="B23" s="58" t="s">
         <v>647</v>
       </c>
@@ -14866,7 +14994,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="206"/>
+      <c r="A24" s="207"/>
       <c r="B24" s="58" t="s">
         <v>542</v>
       </c>
@@ -14878,7 +15006,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="206"/>
+      <c r="A25" s="207"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58" t="s">
         <v>832</v>
@@ -14898,7 +15026,7 @@
       <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="206" t="s">
+      <c r="A27" s="207" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="58" t="s">
@@ -14912,7 +15040,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="206"/>
+      <c r="A28" s="207"/>
       <c r="B28" s="58" t="s">
         <v>86</v>
       </c>
@@ -14922,7 +15050,7 @@
       <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="206"/>
+      <c r="A29" s="207"/>
       <c r="B29" s="58" t="s">
         <v>728</v>
       </c>
@@ -14968,7 +15096,7 @@
       <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="207" t="s">
         <v>546</v>
       </c>
       <c r="B33" s="58" t="s">
@@ -14982,7 +15110,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="206"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="58"/>
       <c r="C34" s="58" t="s">
         <v>837</v>
@@ -14992,12 +15120,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="206"/>
+      <c r="A35" s="207"/>
       <c r="B35" s="58"/>
-      <c r="C35" s="205" t="s">
+      <c r="C35" s="206" t="s">
         <v>838</v>
       </c>
-      <c r="D35" s="205"/>
+      <c r="D35" s="206"/>
     </row>
     <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
@@ -15028,7 +15156,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="206" t="s">
+      <c r="A38" s="207" t="s">
         <v>91</v>
       </c>
       <c r="B38" s="58" t="s">
@@ -15042,7 +15170,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="206"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="58"/>
       <c r="C39" s="92" t="s">
         <v>547</v>
@@ -15074,7 +15202,7 @@
       <c r="D41" s="58"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="207" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="58" t="s">
@@ -15088,7 +15216,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="206"/>
+      <c r="A43" s="207"/>
       <c r="B43" s="58" t="s">
         <v>183</v>
       </c>
@@ -15100,7 +15228,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="206"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="91" t="s">
         <v>184</v>
       </c>
@@ -15112,7 +15240,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="206"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="58" t="s">
         <v>185</v>
       </c>
@@ -15124,7 +15252,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="206"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="93"/>
       <c r="C46" s="58" t="s">
         <v>850</v>
@@ -15134,10 +15262,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="207" t="s">
+      <c r="A48" s="208" t="s">
         <v>734</v>
       </c>
-      <c r="B48" s="211" t="s">
+      <c r="B48" s="212" t="s">
         <v>573</v>
       </c>
       <c r="C48" s="43" t="s">
@@ -15145,22 +15273,22 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="207"/>
-      <c r="B49" s="211"/>
+      <c r="A49" s="208"/>
+      <c r="B49" s="212"/>
       <c r="C49" s="43" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="207"/>
-      <c r="B50" s="211"/>
+      <c r="A50" s="208"/>
+      <c r="B50" s="212"/>
       <c r="C50" s="43" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="207"/>
-      <c r="B51" s="211"/>
+      <c r="A51" s="208"/>
+      <c r="B51" s="212"/>
       <c r="C51" s="43" t="s">
         <v>574</v>
       </c>
@@ -15169,8 +15297,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="207"/>
-      <c r="B52" s="208" t="s">
+      <c r="A52" s="208"/>
+      <c r="B52" s="209" t="s">
         <v>611</v>
       </c>
       <c r="C52" s="43" t="s">
@@ -15181,8 +15309,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="207"/>
-      <c r="B53" s="208"/>
+      <c r="A53" s="208"/>
+      <c r="B53" s="209"/>
       <c r="C53" s="43" t="s">
         <v>610</v>
       </c>
@@ -15191,8 +15319,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="207"/>
-      <c r="B54" s="211" t="s">
+      <c r="A54" s="208"/>
+      <c r="B54" s="212" t="s">
         <v>575</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -15203,8 +15331,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="207"/>
-      <c r="B55" s="211"/>
+      <c r="A55" s="208"/>
+      <c r="B55" s="212"/>
       <c r="C55" s="43" t="s">
         <v>613</v>
       </c>
@@ -15236,7 +15364,7 @@
       <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="207" t="s">
+      <c r="A59" s="208" t="s">
         <v>733</v>
       </c>
       <c r="B59" s="43" t="s">
@@ -15250,7 +15378,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="207"/>
+      <c r="A60" s="208"/>
       <c r="B60" s="43" t="s">
         <v>643</v>
       </c>
@@ -15292,7 +15420,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="207" t="s">
+      <c r="A64" s="208" t="s">
         <v>565</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -15300,7 +15428,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="207"/>
+      <c r="A65" s="208"/>
       <c r="B65" s="43" t="s">
         <v>585</v>
       </c>
@@ -15309,31 +15437,31 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="207"/>
+      <c r="A66" s="208"/>
       <c r="C66" s="43" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="207"/>
+      <c r="A67" s="208"/>
       <c r="B67" s="43" t="s">
         <v>584</v>
       </c>
       <c r="C67" s="43" t="s">
         <v>571</v>
       </c>
-      <c r="D67" s="210"/>
+      <c r="D67" s="211"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="207"/>
+      <c r="A68" s="208"/>
       <c r="C68" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="D68" s="210"/>
+      <c r="D68" s="211"/>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="207"/>
-      <c r="B69" s="209" t="s">
+      <c r="A69" s="208"/>
+      <c r="B69" s="210" t="s">
         <v>583</v>
       </c>
       <c r="C69" s="43" t="s">
@@ -15344,8 +15472,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="207"/>
-      <c r="B70" s="209"/>
+      <c r="A70" s="208"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="43" t="s">
         <v>561</v>
       </c>
@@ -15354,8 +15482,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="207"/>
-      <c r="B71" s="209"/>
+      <c r="A71" s="208"/>
+      <c r="B71" s="210"/>
       <c r="C71" s="43" t="s">
         <v>567</v>
       </c>
@@ -15364,10 +15492,10 @@
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="204" t="s">
+      <c r="A73" s="205" t="s">
         <v>592</v>
       </c>
-      <c r="B73" s="204"/>
+      <c r="B73" s="205"/>
       <c r="C73" s="48" t="s">
         <v>588</v>
       </c>
@@ -15429,7 +15557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -15457,7 +15585,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="207" t="s">
         <v>507</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -15469,7 +15597,7 @@
       <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
+      <c r="A3" s="207"/>
       <c r="B3" s="58" t="s">
         <v>760</v>
       </c>
@@ -15478,7 +15606,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="206"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="58" t="s">
         <v>508</v>
       </c>
@@ -15494,7 +15622,7 @@
       <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="216" t="s">
         <v>509</v>
       </c>
       <c r="B6" s="73" t="s">
@@ -15508,7 +15636,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="215"/>
+      <c r="A7" s="216"/>
       <c r="B7" s="73" t="s">
         <v>510</v>
       </c>
@@ -15520,7 +15648,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A8" s="215"/>
+      <c r="A8" s="216"/>
       <c r="B8" s="73" t="s">
         <v>766</v>
       </c>
@@ -15532,24 +15660,24 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="215"/>
-      <c r="B9" s="216" t="s">
+      <c r="A9" s="216"/>
+      <c r="B9" s="217" t="s">
         <v>748</v>
       </c>
       <c r="C9" s="74" t="s">
         <v>514</v>
       </c>
-      <c r="D9" s="214" t="s">
+      <c r="D9" s="215" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="215"/>
-      <c r="B10" s="216"/>
+      <c r="A10" s="216"/>
+      <c r="B10" s="217"/>
       <c r="C10" s="76" t="s">
         <v>768</v>
       </c>
-      <c r="D10" s="214"/>
+      <c r="D10" s="215"/>
     </row>
     <row r="11" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78"/>
@@ -15558,7 +15686,7 @@
       <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="216" t="s">
         <v>515</v>
       </c>
       <c r="B12" s="80" t="s">
@@ -15572,7 +15700,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="80" t="s">
         <v>650</v>
       </c>
@@ -15584,8 +15712,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="215"/>
-      <c r="B14" s="212" t="s">
+      <c r="A14" s="216"/>
+      <c r="B14" s="213" t="s">
         <v>594</v>
       </c>
       <c r="C14" s="74" t="s">
@@ -15596,8 +15724,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="215"/>
-      <c r="B15" s="212"/>
+      <c r="A15" s="216"/>
+      <c r="B15" s="213"/>
       <c r="C15" s="74" t="s">
         <v>773</v>
       </c>
@@ -15606,8 +15734,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="212"/>
+      <c r="A16" s="216"/>
+      <c r="B16" s="213"/>
       <c r="C16" s="74" t="s">
         <v>774</v>
       </c>
@@ -15624,7 +15752,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="214" t="s">
+      <c r="B19" s="215" t="s">
         <v>660</v>
       </c>
       <c r="C19" s="74" t="s">
@@ -15635,7 +15763,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="214"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="74" t="s">
         <v>777</v>
       </c>
@@ -15671,7 +15799,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="214" t="s">
         <v>663</v>
       </c>
       <c r="C24" s="74" t="s">
@@ -15682,7 +15810,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="213"/>
+      <c r="B25" s="214"/>
       <c r="C25" s="74" t="s">
         <v>782</v>
       </c>
@@ -15706,7 +15834,7 @@
     </row>
     <row r="28" spans="1:4" s="75" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81"/>
-      <c r="B28" s="214" t="s">
+      <c r="B28" s="215" t="s">
         <v>665</v>
       </c>
       <c r="C28" s="74" t="s">
@@ -15718,7 +15846,7 @@
     </row>
     <row r="29" spans="1:4" s="75" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="81"/>
-      <c r="B29" s="214"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="74" t="s">
         <v>667</v>
       </c>
@@ -15727,7 +15855,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="B30" s="217" t="s">
+      <c r="B30" s="218" t="s">
         <v>666</v>
       </c>
       <c r="C30" s="74" t="s">
@@ -15738,7 +15866,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="217"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="74" t="s">
         <v>788</v>
       </c>
@@ -15764,7 +15892,7 @@
       <c r="C34" s="74" t="s">
         <v>790</v>
       </c>
-      <c r="D34" s="214" t="s">
+      <c r="D34" s="215" t="s">
         <v>619</v>
       </c>
     </row>
@@ -15775,7 +15903,7 @@
       <c r="C35" s="74" t="s">
         <v>791</v>
       </c>
-      <c r="D35" s="214"/>
+      <c r="D35" s="215"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" s="74" t="s">
@@ -15786,7 +15914,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="214" t="s">
+      <c r="B37" s="215" t="s">
         <v>671</v>
       </c>
       <c r="C37" s="74" t="s">
@@ -15797,7 +15925,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="214"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="74" t="s">
         <v>794</v>
       </c>
@@ -15806,7 +15934,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="217" t="s">
+      <c r="B39" s="218" t="s">
         <v>672</v>
       </c>
       <c r="C39" s="74" t="s">
@@ -15817,7 +15945,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="217"/>
+      <c r="B40" s="218"/>
       <c r="C40" s="74" t="s">
         <v>796</v>
       </c>
@@ -15900,10 +16028,10 @@
       <c r="B51" s="74" t="s">
         <v>805</v>
       </c>
-      <c r="C51" s="214" t="s">
+      <c r="C51" s="215" t="s">
         <v>806</v>
       </c>
-      <c r="D51" s="214"/>
+      <c r="D51" s="215"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="74" t="s">
@@ -16084,11 +16212,11 @@
     </row>
     <row r="8" spans="1:4" s="61" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
-      <c r="B8" s="219" t="s">
+      <c r="B8" s="220" t="s">
         <v>750</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="220"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
@@ -16234,7 +16362,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="219" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="62" t="s">
@@ -16245,7 +16373,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="218"/>
+      <c r="A22" s="219"/>
       <c r="B22" s="62" t="s">
         <v>60</v>
       </c>
@@ -16257,7 +16385,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="218"/>
+      <c r="A23" s="219"/>
       <c r="B23" s="62" t="s">
         <v>61</v>
       </c>
@@ -16381,7 +16509,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A35" activeCellId="1" sqref="A32:A34 A35:A37"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16406,10 +16534,10 @@
       <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="222" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="221" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -16420,8 +16548,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="221"/>
-      <c r="B3" s="220"/>
+      <c r="A3" s="222"/>
+      <c r="B3" s="221"/>
       <c r="C3" s="57" t="s">
         <v>122</v>
       </c>
@@ -16442,7 +16570,7 @@
       <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="222" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -16456,7 +16584,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="221"/>
+      <c r="A6" s="222"/>
       <c r="B6" s="57"/>
       <c r="C6" s="57" t="s">
         <v>855</v>
@@ -16466,7 +16594,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
+      <c r="A7" s="222"/>
       <c r="B7" s="57"/>
       <c r="C7" s="57" t="s">
         <v>174</v>
@@ -16474,7 +16602,7 @@
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="221"/>
+      <c r="A8" s="222"/>
       <c r="B8" s="57"/>
       <c r="C8" s="57" t="s">
         <v>856</v>
@@ -16484,7 +16612,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="221" t="s">
+      <c r="A9" s="222" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="57" t="s">
@@ -16498,7 +16626,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
+      <c r="A10" s="222"/>
       <c r="B10" s="99" t="s">
         <v>156</v>
       </c>
@@ -16510,7 +16638,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
+      <c r="A11" s="222"/>
       <c r="B11" s="62" t="s">
         <v>537</v>
       </c>
@@ -16522,7 +16650,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="221"/>
+      <c r="A12" s="222"/>
       <c r="B12" s="62" t="s">
         <v>536</v>
       </c>
@@ -16534,7 +16662,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="221"/>
+      <c r="A13" s="222"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62" t="s">
         <v>157</v>
@@ -16544,7 +16672,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="62"/>
       <c r="C14" s="100" t="s">
         <v>148</v>
@@ -16554,7 +16682,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="62"/>
       <c r="C15" s="101" t="s">
         <v>152</v>
@@ -16564,7 +16692,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
+      <c r="A16" s="222"/>
       <c r="B16" s="62"/>
       <c r="C16" s="57" t="s">
         <v>154</v>
@@ -16574,7 +16702,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
+      <c r="A17" s="222"/>
       <c r="B17" s="62"/>
       <c r="C17" s="57" t="s">
         <v>161</v>
@@ -16584,7 +16712,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
+      <c r="A18" s="222"/>
       <c r="B18" s="57"/>
       <c r="C18" s="62" t="s">
         <v>159</v>
@@ -16594,7 +16722,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="57"/>
       <c r="C19" s="62" t="s">
         <v>163</v>
@@ -16604,7 +16732,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
+      <c r="A20" s="222"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62" t="s">
         <v>165</v>
@@ -16614,7 +16742,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="221"/>
+      <c r="A21" s="222"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62" t="s">
         <v>167</v>
@@ -16624,7 +16752,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="221" t="s">
+      <c r="A22" s="222" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -16636,7 +16764,7 @@
       <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="221"/>
+      <c r="A23" s="222"/>
       <c r="B23" s="58"/>
       <c r="C23" s="57" t="s">
         <v>75</v>
@@ -16646,7 +16774,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="221"/>
+      <c r="A24" s="222"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57" t="s">
         <v>169</v>
@@ -16656,7 +16784,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="221"/>
+      <c r="A25" s="222"/>
       <c r="B25" s="57"/>
       <c r="C25" s="57" t="s">
         <v>171</v>
@@ -16791,16 +16919,16 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="222" t="s">
+      <c r="B44" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="222"/>
+      <c r="C44" s="223"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45" s="33"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="223" t="s">
+      <c r="A46" s="224" t="s">
         <v>1027</v>
       </c>
       <c r="C46" s="31" t="s">
@@ -16808,13 +16936,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="223"/>
+      <c r="A47" s="224"/>
       <c r="C47" s="6" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="223"/>
+      <c r="A48" s="224"/>
       <c r="B48" s="1" t="s">
         <v>202</v>
       </c>
@@ -16823,7 +16951,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="223"/>
+      <c r="A49" s="224"/>
       <c r="B49" s="31" t="s">
         <v>712</v>
       </c>
@@ -16832,14 +16960,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="223"/>
-      <c r="B50" s="222" t="s">
+      <c r="A50" s="224"/>
+      <c r="B50" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="222"/>
+      <c r="C50" s="223"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="223"/>
+      <c r="A51" s="224"/>
       <c r="B51" s="1" t="s">
         <v>203</v>
       </c>
@@ -16848,7 +16976,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="223"/>
+      <c r="A52" s="224"/>
       <c r="B52" s="31" t="s">
         <v>713</v>
       </c>
@@ -16857,10 +16985,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="224" t="s">
+      <c r="B53" s="225" t="s">
         <v>563</v>
       </c>
-      <c r="C53" s="224"/>
+      <c r="C53" s="225"/>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -16884,7 +17012,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="223" t="s">
+      <c r="A71" s="224" t="s">
         <v>189</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -16895,7 +17023,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="223"/>
+      <c r="A72" s="224"/>
       <c r="B72" s="1" t="s">
         <v>552</v>
       </c>
@@ -16904,13 +17032,13 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="223"/>
+      <c r="A73" s="224"/>
       <c r="B73" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="223" t="s">
+      <c r="A75" s="224" t="s">
         <v>193</v>
       </c>
       <c r="B75" s="31" t="s">
@@ -16921,7 +17049,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="223"/>
+      <c r="A76" s="224"/>
       <c r="B76" s="1" t="s">
         <v>198</v>
       </c>
@@ -16930,13 +17058,13 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="223"/>
+      <c r="A77" s="224"/>
       <c r="B77" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="223" t="s">
+      <c r="A79" s="224" t="s">
         <v>538</v>
       </c>
       <c r="C79" s="31" t="s">
@@ -16944,7 +17072,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="223"/>
+      <c r="A80" s="224"/>
       <c r="B80" s="1" t="s">
         <v>200</v>
       </c>
@@ -16953,7 +17081,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="223"/>
+      <c r="A81" s="224"/>
       <c r="B81" s="1" t="s">
         <v>209</v>
       </c>
@@ -16962,7 +17090,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="223"/>
+      <c r="A82" s="224"/>
       <c r="B82" s="1" t="s">
         <v>201</v>
       </c>
@@ -16971,7 +17099,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="223"/>
+      <c r="A83" s="224"/>
       <c r="B83" s="1" t="s">
         <v>210</v>
       </c>
@@ -17068,19 +17196,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="230" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="230"/>
       <c r="C1" s="82" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="231"/>
+      <c r="B2" s="232"/>
       <c r="C2" s="83"/>
     </row>
     <row r="3" spans="1:3" s="22" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17182,7 +17310,7 @@
       <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="226" t="s">
+      <c r="A13" s="227" t="s">
         <v>462</v>
       </c>
       <c r="B13" s="69" t="s">
@@ -17191,14 +17319,14 @@
       <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="226"/>
+      <c r="A14" s="227"/>
       <c r="B14" s="86" t="s">
         <v>815</v>
       </c>
       <c r="C14" s="74"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="226"/>
+      <c r="A15" s="227"/>
       <c r="B15" s="69" t="s">
         <v>464</v>
       </c>
@@ -17214,10 +17342,10 @@
       <c r="C16" s="74"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="230" t="s">
+      <c r="A18" s="231" t="s">
         <v>468</v>
       </c>
-      <c r="B18" s="230"/>
+      <c r="B18" s="231"/>
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -17294,16 +17422,16 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="232" t="s">
+      <c r="A28" s="233" t="s">
         <v>485</v>
       </c>
-      <c r="B28" s="232"/>
+      <c r="B28" s="233"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="233" t="s">
+      <c r="A30" s="234" t="s">
         <v>502</v>
       </c>
-      <c r="B30" s="233"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17318,7 +17446,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="227" t="s">
+      <c r="A32" s="228" t="s">
         <v>486</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -17326,16 +17454,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="227"/>
+      <c r="A33" s="228"/>
       <c r="B33" s="21" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="227"/>
+      <c r="A34" s="228"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="227" t="s">
+      <c r="A35" s="228" t="s">
         <v>488</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -17343,16 +17471,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="227"/>
+      <c r="A36" s="228"/>
       <c r="B36" s="21" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="227"/>
+      <c r="A37" s="228"/>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="228" t="s">
+      <c r="A38" s="229" t="s">
         <v>490</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -17360,16 +17488,16 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="228"/>
+      <c r="A39" s="229"/>
       <c r="B39" s="21" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="228"/>
+      <c r="A40" s="229"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="228" t="s">
+      <c r="A41" s="229" t="s">
         <v>492</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -17377,16 +17505,16 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="228"/>
+      <c r="A42" s="229"/>
       <c r="B42" s="21" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="228"/>
+      <c r="A43" s="229"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="228" t="s">
+      <c r="A44" s="229" t="s">
         <v>494</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -17394,19 +17522,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="228"/>
+      <c r="A45" s="229"/>
       <c r="B45" s="21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="228"/>
+      <c r="A46" s="229"/>
     </row>
     <row r="47" spans="1:3" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="225" t="s">
+      <c r="A47" s="226" t="s">
         <v>496</v>
       </c>
-      <c r="B47" s="225"/>
+      <c r="B47" s="226"/>
       <c r="C47" s="25"/>
     </row>
   </sheetData>
